--- a/Templates/Test design.xlsx
+++ b/Templates/Test design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Usability" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="193">
   <si>
     <t>Requirement Level 1</t>
   </si>
@@ -529,46 +529,10 @@
     <t>Verify if the system automatically returns to a stable state after the load drops from peak to normal levels.</t>
   </si>
   <si>
-    <t>API &amp; System Integration</t>
-  </si>
-  <si>
-    <t>Backend API Interaction</t>
-  </si>
-  <si>
     <t>Product API</t>
   </si>
   <si>
-    <t>Verify the JSON response structure for the food list; ensure all fields (_id, name, price, image, category) are present and response time is &lt; 500ms.</t>
-  </si>
-  <si>
-    <t>Interface (Grey‑box)</t>
-  </si>
-  <si>
     <t>Order API</t>
-  </si>
-  <si>
-    <t>Validate data integrity during order creation; cross-check the API response against actual records stored in the MongoDB "orders" collection.</t>
-  </si>
-  <si>
-    <t>Ensure the system returns correct error codes (400 Bad Request/404 Not Found) for invalid IDs and prevents server crashes.</t>
-  </si>
-  <si>
-    <t>Security &amp; Auth Integration</t>
-  </si>
-  <si>
-    <t>JWT Authentication</t>
-  </si>
-  <si>
-    <t>Validate API security via Bearer Tokens; ensure access is denied (401 Unauthorized) when the token is missing or expired.</t>
-  </si>
-  <si>
-    <t>Third-party Integration</t>
-  </si>
-  <si>
-    <t>Google Maps API</t>
-  </si>
-  <si>
-    <t>Verify the accuracy of distance and shipping fee calculations by checking integration with the Google Maps API.</t>
   </si>
   <si>
     <t>Application Security</t>
@@ -640,6 +604,63 @@
       </rPr>
       <t xml:space="preserve"> to identify and resolve known security vulnerabilities (CVEs).</t>
     </r>
+  </si>
+  <si>
+    <t>Interface &amp; UI Testing</t>
+  </si>
+  <si>
+    <t>Graphical User Interface (GUI)</t>
+  </si>
+  <si>
+    <t>Layout &amp; Visuals</t>
+  </si>
+  <si>
+    <t>Verify homepage grid layout, banner sharpness, and ensure no horizontal scrollbars on 1920x1080 resolution.</t>
+  </si>
+  <si>
+    <t>Black‑box</t>
+  </si>
+  <si>
+    <t>Interactivity</t>
+  </si>
+  <si>
+    <t>Validate hover effects on "Add to Cart" buttons and navigation links (color transition and pointer change).</t>
+  </si>
+  <si>
+    <t>Responsiveness</t>
+  </si>
+  <si>
+    <t>Ensure the food grid automatically adjusts from 4 to 3 columns when the browser window is resized to 1024px.</t>
+  </si>
+  <si>
+    <t>Sticky Elements</t>
+  </si>
+  <si>
+    <t>Verify that the Navigation Header and Cart icon remain fixed (sticky) at the top while scrolling down long menus.</t>
+  </si>
+  <si>
+    <t>System Interface (API)</t>
+  </si>
+  <si>
+    <t>Verify the JSON response structure for the food list; ensure all required fields are present and response time is &lt; 500ms.</t>
+  </si>
+  <si>
+    <t>Grey‑box</t>
+  </si>
+  <si>
+    <t>Validate data integrity during order creation; cross-check API response data against actual MongoDB records.</t>
+  </si>
+  <si>
+    <t>Auth Integration</t>
+  </si>
+  <si>
+    <t>Validate API security via JWT; ensure access is denied (401 Unauthorized) when the token is missing or expired.</t>
+  </si>
+  <si>
+    <t>Third-party API</t>
+  </si>
+  <si>
+    <t>Verify distance and shipping fee calculations by checking integration with the Google Maps API.</t>
   </si>
 </sst>
 </file>
@@ -2082,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2116,79 +2137,117 @@
     </row>
     <row r="2" spans="1:5" ht="32.25" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30.75" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="32.25" thickBot="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30.75" thickBot="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="32.25" thickBot="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>159</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2196,7 +2255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2228,79 +2287,79 @@
     </row>
     <row r="2" spans="1:5" ht="32.25" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="32.25" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="32.25" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="32.25" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="32.25" thickBot="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
